--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_asterisks_validation.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_asterisks_validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="144">
   <si>
     <t>Steps</t>
   </si>
@@ -352,6 +352,102 @@
   </si>
   <si>
     <t>*ult_Value</t>
+  </si>
+  <si>
+    <t>*myValue*</t>
+  </si>
+  <si>
+    <t>*MyValue*</t>
+  </si>
+  <si>
+    <t>result*</t>
+  </si>
+  <si>
+    <t>MyValue*</t>
+  </si>
+  <si>
+    <t>myValue*</t>
+  </si>
+  <si>
+    <t>t*</t>
+  </si>
+  <si>
+    <t>tqwefqwefqwefqwef*</t>
+  </si>
+  <si>
+    <t>Values*</t>
+  </si>
+  <si>
+    <t>1Step1*</t>
+  </si>
+  <si>
+    <t>My Step*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Step_1 *</t>
+  </si>
+  <si>
+    <t>Step1* *</t>
+  </si>
+  <si>
+    <t>Step^*</t>
+  </si>
+  <si>
+    <t>Step-1*</t>
+  </si>
+  <si>
+    <t>Step.1*</t>
+  </si>
+  <si>
+    <t>Step__1*</t>
+  </si>
+  <si>
+    <t>тест*</t>
+  </si>
+  <si>
+    <t>aaa*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 印刷中的星号*</t>
+  </si>
+  <si>
+    <t>TestЫЫЫ*</t>
+  </si>
+  <si>
+    <t>アスタリスク*</t>
+  </si>
+  <si>
+    <t>OtherValues*</t>
+  </si>
+  <si>
+    <t>Step1*</t>
+  </si>
+  <si>
+    <t>Step3*</t>
+  </si>
+  <si>
+    <t>ult_Value</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Res_ult</t>
+  </si>
+  <si>
+    <t>Step5*</t>
+  </si>
+  <si>
+    <t>Step4*</t>
+  </si>
+  <si>
+    <t>Step2*</t>
+  </si>
+  <si>
+    <t>Result*</t>
+  </si>
+  <si>
+    <t>Result0*</t>
   </si>
 </sst>
 </file>
@@ -996,12 +1092,12 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1013,7 +1109,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1025,7 +1121,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1037,7 +1133,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1049,7 +1145,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>23</v>
@@ -1139,19 +1235,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>25</v>
@@ -1244,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>36</v>
@@ -1316,7 +1412,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
@@ -1344,7 +1440,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>58</v>
@@ -1368,15 +1464,15 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" t="s" s="3">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="8">
-        <v>11</v>
+      <c r="B50" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" t="s" s="4">
@@ -1384,8 +1480,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="8">
-        <v>13</v>
+      <c r="B51" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" t="s" s="4">
@@ -1393,8 +1489,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="8">
-        <v>6</v>
+      <c r="B52" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" t="s" s="4">
@@ -1402,8 +1498,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="8">
-        <v>17</v>
+      <c r="B53" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" t="s" s="4">
@@ -1411,8 +1507,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="8">
-        <v>22</v>
+      <c r="B54" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" t="s" s="4">
@@ -1476,15 +1572,15 @@
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="3" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" t="s" s="4">
@@ -1493,7 +1589,7 @@
     </row>
     <row r="64">
       <c r="B64" s="3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" t="s" s="4">
@@ -1624,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>2</v>
@@ -1635,7 +1731,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -1649,7 +1745,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>57</v>
@@ -1663,7 +1759,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>58</v>
@@ -1680,7 +1776,7 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>58</v>
@@ -1694,7 +1790,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>58</v>
@@ -1708,7 +1804,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>58</v>
@@ -1722,7 +1818,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>58</v>
@@ -1736,7 +1832,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -1761,12 +1857,12 @@
         <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>56</v>
@@ -1774,7 +1870,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>57</v>
@@ -1782,7 +1878,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>58</v>
@@ -1790,7 +1886,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>58</v>
@@ -1798,7 +1894,7 @@
     </row>
     <row r="24">
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>58</v>
@@ -1822,7 +1918,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>56</v>
@@ -1830,7 +1926,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>57</v>
@@ -1838,7 +1934,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>57</v>
